--- a/biology/Mycologie/Tapinella_atrotomentosa/Tapinella_atrotomentosa.xlsx
+++ b/biology/Mycologie/Tapinella_atrotomentosa/Tapinella_atrotomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapinella atrotomentosa
 Tapinella atrotomentosa, le paxille à pied noir (autrefois Paxillus atrotomentosus), est une espèce de champignons basidiomycètes de la famille des Tapinellaceae.
@@ -513,7 +525,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau : de 5 à 15 cm ou plus, convexe, bosselé, puis étalé et déprimé, brun, d'aspect velouté.
 Marge : enroulée.
@@ -549,7 +563,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paxille à pied noir pousse de juillet à octobre en Europe et en Amérique du Nord, sous les conifères ou occasionnellement les feuillus, sur ou à proximité de souches pourrissantes. Il est commun, quoique beaucoup moins que le paxille enroulé.
 </t>
@@ -580,7 +596,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un médiocre comestible en raison de l'amertume de sa chair.
 </t>
@@ -611,7 +629,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec son pied guêtré de velours, ce champignon ne présente guère de risque de confusion.
 L'espèce la plus proche est le paxille en forme de Panus (Paxillus panuoides), lui aussi reclassé en Tapinella panuoides.
@@ -643,7 +663,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Champignons du Nord et du Midi, André Marchand, tome III/IX, Hachette 1975,  (ISBN 84-399-3605-2)
 (en) Référence Index Fungorum : Tapinella atrotomentosa 
